--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl12-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl12-Itga4.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H2">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I2">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J2">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N2">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O2">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P2">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q2">
-        <v>75.79240944201</v>
+        <v>68.94789255353733</v>
       </c>
       <c r="R2">
-        <v>682.1316849780899</v>
+        <v>620.5310329818359</v>
       </c>
       <c r="S2">
-        <v>0.002924973665723743</v>
+        <v>0.003598657960337471</v>
       </c>
       <c r="T2">
-        <v>0.002924973665723743</v>
+        <v>0.003598657960337471</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H3">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I3">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J3">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N3">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O3">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P3">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q3">
-        <v>63.56950467322798</v>
+        <v>46.84250836126133</v>
       </c>
       <c r="R3">
-        <v>572.1255420590518</v>
+        <v>421.582575251352</v>
       </c>
       <c r="S3">
-        <v>0.002453268453677532</v>
+        <v>0.002444892212848053</v>
       </c>
       <c r="T3">
-        <v>0.002453268453677532</v>
+        <v>0.002444892212848053</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H4">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I4">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J4">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N4">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O4">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P4">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q4">
-        <v>399.630208071042</v>
+        <v>153.556661331202</v>
       </c>
       <c r="R4">
-        <v>3596.671872639377</v>
+        <v>1382.009951980818</v>
       </c>
       <c r="S4">
-        <v>0.01542249208385238</v>
+        <v>0.008014717799145038</v>
       </c>
       <c r="T4">
-        <v>0.01542249208385238</v>
+        <v>0.008014717799145038</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H5">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I5">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J5">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N5">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O5">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P5">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q5">
-        <v>10882.8674711967</v>
+        <v>7361.918653731565</v>
       </c>
       <c r="R5">
-        <v>97945.80724077031</v>
+        <v>66257.26788358409</v>
       </c>
       <c r="S5">
-        <v>0.4199906164108314</v>
+        <v>0.3842470913238785</v>
       </c>
       <c r="T5">
-        <v>0.4199906164108315</v>
+        <v>0.3842470913238785</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>590.324021</v>
       </c>
       <c r="I6">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J6">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N6">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O6">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P6">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q6">
-        <v>74.95344094637001</v>
+        <v>92.53276555928689</v>
       </c>
       <c r="R6">
-        <v>674.58096851733</v>
+        <v>832.794890033582</v>
       </c>
       <c r="S6">
-        <v>0.002892596271019113</v>
+        <v>0.004829643967919723</v>
       </c>
       <c r="T6">
-        <v>0.002892596271019113</v>
+        <v>0.004829643967919724</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>590.324021</v>
       </c>
       <c r="I7">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J7">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N7">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O7">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P7">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q7">
-        <v>62.86583510925821</v>
+        <v>62.86583510925823</v>
       </c>
       <c r="R7">
-        <v>565.7925159833239</v>
+        <v>565.7925159833241</v>
       </c>
       <c r="S7">
-        <v>0.002426112502849004</v>
+        <v>0.003281211790099715</v>
       </c>
       <c r="T7">
-        <v>0.002426112502849004</v>
+        <v>0.003281211790099715</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>590.324021</v>
       </c>
       <c r="I8">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J8">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N8">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O8">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P8">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q8">
-        <v>395.206583634954</v>
+        <v>206.0834931538157</v>
       </c>
       <c r="R8">
-        <v>3556.859252714586</v>
+        <v>1854.751438384341</v>
       </c>
       <c r="S8">
-        <v>0.01525177597813853</v>
+        <v>0.01075629690285701</v>
       </c>
       <c r="T8">
-        <v>0.01525177597813853</v>
+        <v>0.01075629690285701</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>590.324021</v>
       </c>
       <c r="I9">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J9">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N9">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O9">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P9">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q9">
-        <v>10762.40180692006</v>
+        <v>9880.19600923008</v>
       </c>
       <c r="R9">
-        <v>96861.6162622805</v>
+        <v>88921.76408307072</v>
       </c>
       <c r="S9">
-        <v>0.4153416166201241</v>
+        <v>0.5156857548720856</v>
       </c>
       <c r="T9">
-        <v>0.4153416166201241</v>
+        <v>0.5156857548720857</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H10">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I10">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J10">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N10">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O10">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P10">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q10">
-        <v>21.14003089402</v>
+        <v>11.36794196221267</v>
       </c>
       <c r="R10">
-        <v>190.26027804618</v>
+        <v>102.311477659914</v>
       </c>
       <c r="S10">
-        <v>0.0008158341199708803</v>
+        <v>0.0005933369871052304</v>
       </c>
       <c r="T10">
-        <v>0.0008158341199708802</v>
+        <v>0.0005933369871052304</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H11">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I11">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J11">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N11">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O11">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P11">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q11">
-        <v>17.73081635223378</v>
+        <v>7.723266030238667</v>
       </c>
       <c r="R11">
-        <v>159.577347170104</v>
+        <v>69.509394272148</v>
       </c>
       <c r="S11">
-        <v>0.0006842660272167268</v>
+        <v>0.0004031072125655049</v>
       </c>
       <c r="T11">
-        <v>0.0006842660272167268</v>
+        <v>0.0004031072125655049</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H12">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I12">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J12">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N12">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O12">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P12">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q12">
-        <v>111.464921184084</v>
+        <v>25.318006820423</v>
       </c>
       <c r="R12">
-        <v>1003.184290656756</v>
+        <v>227.862061383807</v>
       </c>
       <c r="S12">
-        <v>0.004301643944501734</v>
+        <v>0.001321444984173331</v>
       </c>
       <c r="T12">
-        <v>0.004301643944501733</v>
+        <v>0.001321444984173331</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H13">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I13">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J13">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N13">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O13">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P13">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q13">
-        <v>3035.451125651962</v>
+        <v>1213.813227448061</v>
       </c>
       <c r="R13">
-        <v>27319.06013086766</v>
+        <v>10924.31904703254</v>
       </c>
       <c r="S13">
-        <v>0.1171438495159156</v>
+        <v>0.06335362070605853</v>
       </c>
       <c r="T13">
-        <v>0.1171438495159156</v>
+        <v>0.06335362070605853</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H14">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I14">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J14">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N14">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O14">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P14">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q14">
-        <v>0.06034528584000001</v>
+        <v>0.2545002080366667</v>
       </c>
       <c r="R14">
-        <v>0.5431075725600001</v>
+        <v>2.29050187233</v>
       </c>
       <c r="S14">
-        <v>2.328839698223624E-06</v>
+        <v>1.328335306039322E-05</v>
       </c>
       <c r="T14">
-        <v>2.328839698223624E-06</v>
+        <v>1.328335306039322E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H15">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I15">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J15">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N15">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O15">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P15">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q15">
-        <v>0.050613510752</v>
+        <v>0.1729048950066667</v>
       </c>
       <c r="R15">
-        <v>0.455521596768</v>
+        <v>1.55614405506</v>
       </c>
       <c r="S15">
-        <v>1.953271932761232E-06</v>
+        <v>9.024577166211485E-06</v>
       </c>
       <c r="T15">
-        <v>1.953271932761232E-06</v>
+        <v>9.024577166211485E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H16">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I16">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J16">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N16">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O16">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P16">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q16">
-        <v>0.318182246928</v>
+        <v>0.5668077849350001</v>
       </c>
       <c r="R16">
-        <v>2.863640222352</v>
+        <v>5.101270064415</v>
       </c>
       <c r="S16">
-        <v>1.22792598891751E-05</v>
+        <v>2.958389693570032E-05</v>
       </c>
       <c r="T16">
-        <v>1.22792598891751E-05</v>
+        <v>2.958389693570032E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H17">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I17">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J17">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N17">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O17">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P17">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q17">
-        <v>8.664848540152001</v>
+        <v>27.17428712514834</v>
       </c>
       <c r="R17">
-        <v>77.98363686136801</v>
+        <v>244.568584126335</v>
       </c>
       <c r="S17">
-        <v>0.0003343930346589769</v>
+        <v>0.001418331453763833</v>
       </c>
       <c r="T17">
-        <v>0.0003343930346589769</v>
+        <v>0.001418331453763833</v>
       </c>
     </row>
   </sheetData>
